--- a/stores/tabla_estadisticasskim.xlsx
+++ b/stores/tabla_estadisticasskim.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fticonsultingeur-my.sharepoint.com/personal/laura_almario_fticonsulting_com/Documents/Documentos/GitHub/Taller_3/stores/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_B17C1472C3574AFC124848701A473E7C31CB6C4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC14C705-017F-4EAD-9A20-2AE34408718C}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
   <si>
     <t>skim_type</t>
   </si>
@@ -347,26 +356,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -374,26 +398,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -465,26 +820,26 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>164960.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>164960</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -520,7 +875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -530,11 +885,11 @@
       <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="e">
         <v>#N/A</v>
@@ -554,8 +909,8 @@
       <c r="K3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.0</v>
+      <c r="L3">
+        <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>94</v>
@@ -585,7 +940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -595,11 +950,11 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -619,8 +974,8 @@
       <c r="K4" t="s">
         <v>93</v>
       </c>
-      <c r="L4" t="n">
-        <v>25.0</v>
+      <c r="L4">
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>95</v>
@@ -650,7 +1005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -660,11 +1015,11 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
@@ -684,8 +1039,8 @@
       <c r="K5" t="s">
         <v>93</v>
       </c>
-      <c r="L5" t="n">
-        <v>6.0</v>
+      <c r="L5">
+        <v>6</v>
       </c>
       <c r="M5" t="s">
         <v>96</v>
@@ -715,7 +1070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -725,11 +1080,11 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
@@ -749,8 +1104,8 @@
       <c r="K6" t="s">
         <v>93</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.0</v>
+      <c r="L6">
+        <v>2</v>
       </c>
       <c r="M6" t="s">
         <v>97</v>
@@ -780,7 +1135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -790,11 +1145,11 @@
       <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
@@ -814,8 +1169,8 @@
       <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.0</v>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="M7" t="s">
         <v>98</v>
@@ -845,7 +1200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -855,11 +1210,11 @@
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.0</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -879,8 +1234,8 @@
       <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="n">
-        <v>24.0</v>
+      <c r="L8">
+        <v>24</v>
       </c>
       <c r="M8" t="s">
         <v>99</v>
@@ -910,7 +1265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -920,11 +1275,11 @@
       <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.0</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -944,8 +1299,8 @@
       <c r="K9" t="s">
         <v>93</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.0</v>
+      <c r="L9">
+        <v>2</v>
       </c>
       <c r="M9" t="s">
         <v>100</v>
@@ -975,7 +1330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -985,11 +1340,11 @@
       <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
@@ -1009,8 +1364,8 @@
       <c r="K10" t="s">
         <v>93</v>
       </c>
-      <c r="L10" t="n">
-        <v>13.0</v>
+      <c r="L10">
+        <v>13</v>
       </c>
       <c r="M10" t="s">
         <v>101</v>
@@ -1040,7 +1395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1050,11 +1405,11 @@
       <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.0</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -1074,8 +1429,8 @@
       <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="L11" t="n">
-        <v>6.0</v>
+      <c r="L11">
+        <v>6</v>
       </c>
       <c r="M11" t="s">
         <v>102</v>
@@ -1105,7 +1460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1115,11 +1470,11 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
@@ -1145,32 +1500,32 @@
       <c r="M12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>3.3903794859359846</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1.2394737894974655</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>98.0</v>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>98</v>
       </c>
       <c r="U12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1180,11 +1535,11 @@
       <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.0</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -1210,32 +1565,32 @@
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N13" t="n">
-        <v>1.989361057225994</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N13">
+        <v>1.9893610572259941</v>
+      </c>
+      <c r="O13">
         <v>0.8981577199495393</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>15.0</v>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
       </c>
       <c r="U13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1245,11 +1600,11 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="n">
-        <v>159334.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.034105237633365704</v>
+      <c r="D14">
+        <v>159334</v>
+      </c>
+      <c r="E14">
+        <v>3.4105237633365704E-2</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
@@ -1275,32 +1630,32 @@
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N14" t="n">
-        <v>919943.2396018485</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6115976.48897563</v>
-      </c>
-      <c r="P14" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>893875.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.8E8</v>
+      <c r="N14">
+        <v>919943.23960184853</v>
+      </c>
+      <c r="O14">
+        <v>6115976.4889756301</v>
+      </c>
+      <c r="P14">
+        <v>98</v>
+      </c>
+      <c r="Q14">
+        <v>300000</v>
+      </c>
+      <c r="R14">
+        <v>500000</v>
+      </c>
+      <c r="S14">
+        <v>893875</v>
+      </c>
+      <c r="T14">
+        <v>280000000</v>
       </c>
       <c r="U14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1310,10 +1665,10 @@
       <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="n">
-        <v>64453.0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>64453</v>
+      </c>
+      <c r="E15">
         <v>0.6092810378273521</v>
       </c>
       <c r="F15" t="e">
@@ -1340,32 +1695,32 @@
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N15" t="n">
-        <v>499840.8301212851</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="N15">
+        <v>499840.83012128511</v>
+      </c>
+      <c r="O15">
         <v>4163131.0453279675</v>
       </c>
-      <c r="P15" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>200000.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>350000.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6.0E8</v>
+      <c r="P15">
+        <v>98</v>
+      </c>
+      <c r="Q15">
+        <v>200000</v>
+      </c>
+      <c r="R15">
+        <v>350000</v>
+      </c>
+      <c r="S15">
+        <v>500000</v>
+      </c>
+      <c r="T15">
+        <v>600000000</v>
       </c>
       <c r="U15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1375,10 +1730,10 @@
       <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="n">
-        <v>100507.0</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>100507</v>
+      </c>
+      <c r="E16">
         <v>0.3907189621726479</v>
       </c>
       <c r="F16" t="e">
@@ -1405,32 +1760,32 @@
       <c r="M16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>437911.8002730672</v>
       </c>
-      <c r="O16" t="n">
-        <v>1447543.242245213</v>
-      </c>
-      <c r="P16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>250000.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>380000.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.0E8</v>
+      <c r="O16">
+        <v>1447543.2422452129</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>250000</v>
+      </c>
+      <c r="R16">
+        <v>380000</v>
+      </c>
+      <c r="S16">
+        <v>500000</v>
+      </c>
+      <c r="T16">
+        <v>300000000</v>
       </c>
       <c r="U16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1440,11 +1795,11 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.0</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
@@ -1470,32 +1825,32 @@
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>3.2923678467507274</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>1.7747992417844067</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>28.0</v>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>28</v>
       </c>
       <c r="U17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1505,11 +1860,11 @@
       <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
@@ -1535,32 +1890,32 @@
       <c r="M18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>3.279570805043647</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>1.772475690453464</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>28.0</v>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>28</v>
       </c>
       <c r="U18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1570,11 +1925,11 @@
       <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.0</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -1600,32 +1955,32 @@
       <c r="M19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>2090895.1013497566</v>
       </c>
-      <c r="O19" t="n">
-        <v>2512487.783949165</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>800000.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1400000.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2500000.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8.58333333333333E7</v>
+      <c r="O19">
+        <v>2512487.7839491651</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>800000</v>
+      </c>
+      <c r="R19">
+        <v>1400000</v>
+      </c>
+      <c r="S19">
+        <v>2500000</v>
+      </c>
+      <c r="T19">
+        <v>85833333.333333299</v>
       </c>
       <c r="U19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1635,11 +1990,11 @@
       <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -1665,32 +2020,32 @@
       <c r="M20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>2307864.6303567886</v>
       </c>
-      <c r="O20" t="n">
-        <v>2628933.199403179</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>900000.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1581242.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="O20">
+        <v>2628933.1994031789</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>900000</v>
+      </c>
+      <c r="R20">
+        <v>1581242</v>
+      </c>
+      <c r="S20">
         <v>2785322.0000000023</v>
       </c>
-      <c r="T20" t="n">
-        <v>8.88333333333333E7</v>
+      <c r="T20">
+        <v>88833333.333333299</v>
       </c>
       <c r="U20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1700,11 +2055,11 @@
       <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.0</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -1730,32 +2085,32 @@
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N21" t="n">
-        <v>870639.2576832839</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="N21">
+        <v>870639.25768328388</v>
+      </c>
+      <c r="O21">
         <v>1244349.7351955166</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>543568.4791666665</v>
-      </c>
-      <c r="S21" t="n">
-        <v>987367.4166666667</v>
-      </c>
-      <c r="T21" t="n">
-        <v>8.88333333333333E7</v>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>300000</v>
+      </c>
+      <c r="R21">
+        <v>543568.47916666651</v>
+      </c>
+      <c r="S21">
+        <v>987367.41666666674</v>
+      </c>
+      <c r="T21">
+        <v>88833333.333333299</v>
       </c>
       <c r="U21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1765,11 +2120,11 @@
       <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.0</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
@@ -1795,32 +2150,32 @@
       <c r="M22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>120395.54216057483</v>
       </c>
-      <c r="O22" t="n">
-        <v>7202.557806789646</v>
-      </c>
-      <c r="P22" t="n">
-        <v>99544.8432443331</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="O22">
+        <v>7202.5578067896458</v>
+      </c>
+      <c r="P22">
+        <v>99544.843244333097</v>
+      </c>
+      <c r="Q22">
         <v>120089.278969409</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>121603.863297269</v>
       </c>
-      <c r="S22" t="n">
-        <v>123699.056179763</v>
-      </c>
-      <c r="T22" t="n">
-        <v>131125.56583564</v>
+      <c r="S22">
+        <v>123699.05617976301</v>
+      </c>
+      <c r="T22">
+        <v>131125.56583564001</v>
       </c>
       <c r="U22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1830,11 +2185,11 @@
       <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.0</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -1860,32 +2215,32 @@
       <c r="M23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>271522.31455790927</v>
       </c>
-      <c r="O23" t="n">
-        <v>33656.89215835872</v>
-      </c>
-      <c r="P23" t="n">
-        <v>167222.477630338</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>275594.029448349</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="O23">
+        <v>33656.892158358722</v>
+      </c>
+      <c r="P23">
+        <v>167222.47763033799</v>
+      </c>
+      <c r="Q23">
+        <v>275594.02944834903</v>
+      </c>
+      <c r="R23">
         <v>279944.529963471</v>
       </c>
-      <c r="S23" t="n">
-        <v>285649.510163601</v>
-      </c>
-      <c r="T23" t="n">
-        <v>303816.690226449</v>
+      <c r="S23">
+        <v>285649.51016360102</v>
+      </c>
+      <c r="T23">
+        <v>303816.69022644899</v>
       </c>
       <c r="U23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1895,11 +2250,11 @@
       <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.0</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -1925,32 +2280,32 @@
       <c r="M24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.8276006304558681</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="N24">
+        <v>0.82760063045586807</v>
+      </c>
+      <c r="O24">
         <v>1.8863882938795244</v>
       </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>28.0</v>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>28</v>
       </c>
       <c r="U24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1960,11 +2315,11 @@
       <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.0</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
@@ -1990,32 +2345,32 @@
       <c r="M25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>0.18874878758486907</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.9540803561613</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>17.0</v>
+      <c r="O25">
+        <v>0.95408035616130005</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>17</v>
       </c>
       <c r="U25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2025,11 +2380,11 @@
       <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
@@ -2055,32 +2410,32 @@
       <c r="M26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N26" t="n">
-        <v>66.61525990728114</v>
-      </c>
-      <c r="O26" t="n">
-        <v>88.61672308552151</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="N26">
+        <v>66.615259907281143</v>
+      </c>
+      <c r="O26">
+        <v>88.616723085521514</v>
+      </c>
+      <c r="P26">
         <v>1.27709503745322</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>12.3676400626376</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>26.8159275033941</v>
       </c>
-      <c r="S26" t="n">
-        <v>87.0818867909849</v>
-      </c>
-      <c r="T26" t="n">
-        <v>918.608881441077</v>
+      <c r="S26">
+        <v>87.081886790984896</v>
+      </c>
+      <c r="T26">
+        <v>918.60888144107696</v>
       </c>
       <c r="U26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2090,11 +2445,11 @@
       <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.0</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
@@ -2120,32 +2475,32 @@
       <c r="M27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N27" t="n">
-        <v>66.60219257037919</v>
-      </c>
-      <c r="O27" t="n">
-        <v>91.8427360836482</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.22781650607924</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="N27">
+        <v>66.602192570379188</v>
+      </c>
+      <c r="O27">
+        <v>91.842736083648205</v>
+      </c>
+      <c r="P27">
+        <v>1.2278165060792401</v>
+      </c>
+      <c r="Q27">
         <v>12.4313301205017</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>26.6366612879679</v>
       </c>
-      <c r="S27" t="n">
-        <v>87.28050709971762</v>
-      </c>
-      <c r="T27" t="n">
+      <c r="S27">
+        <v>87.280507099717624</v>
+      </c>
+      <c r="T27">
         <v>1740.31085352332</v>
       </c>
       <c r="U27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2155,11 +2510,11 @@
       <c r="C28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
@@ -2185,32 +2540,32 @@
       <c r="M28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>1.7404037342386034</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.179731277857713</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>14.0</v>
+      <c r="O28">
+        <v>1.1797312778577129</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>14</v>
       </c>
       <c r="U28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2220,11 +2575,11 @@
       <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.0</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
@@ -2250,32 +2605,32 @@
       <c r="M29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N29" t="n">
-        <v>49.61220295829292</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="N29">
+        <v>49.612202958292919</v>
+      </c>
+      <c r="O29">
         <v>16.390099614285813</v>
       </c>
-      <c r="P29" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>108.0</v>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+      <c r="R29">
+        <v>49</v>
+      </c>
+      <c r="S29">
+        <v>61</v>
+      </c>
+      <c r="T29">
+        <v>108</v>
       </c>
       <c r="U29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2285,11 +2640,11 @@
       <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.0</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -2315,32 +2670,32 @@
       <c r="M30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.919137972841901</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="N30">
+        <v>0.91913797284190102</v>
+      </c>
+      <c r="O30">
         <v>1.1208489472381455</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>15.0</v>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>15</v>
       </c>
       <c r="U30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2350,11 +2705,11 @@
       <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="D31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9999939379243453</v>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.99999393792434532</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
@@ -2380,32 +2735,32 @@
       <c r="M31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N31" t="n">
-        <v>6.106450693808765</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="N31">
+        <v>6.1064506938087648</v>
+      </c>
+      <c r="O31">
         <v>3.7188786092921475</v>
       </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>99.0</v>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>11</v>
+      </c>
+      <c r="T31">
+        <v>99</v>
       </c>
       <c r="U31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2415,11 +2770,11 @@
       <c r="C32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.0</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
@@ -2445,32 +2800,32 @@
       <c r="M32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.7102085354025218</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="N32">
+        <v>0.71020853540252182</v>
+      </c>
+      <c r="O32">
         <v>0.45366685938214396</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.0</v>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
       </c>
       <c r="U32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2480,11 +2835,11 @@
       <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" t="n">
-        <v>164960.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
+      <c r="D33">
+        <v>164960</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -2535,7 +2890,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2545,11 +2900,11 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.0</v>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
@@ -2575,32 +2930,32 @@
       <c r="M34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N34" t="n">
-        <v>2.530225509214355</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="N34">
+        <v>2.5302255092143549</v>
+      </c>
+      <c r="O34">
         <v>1.4199572401418852</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>19.0</v>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>19</v>
       </c>
       <c r="U34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2610,11 +2965,11 @@
       <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.0</v>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
@@ -2640,32 +2995,32 @@
       <c r="M35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.006213627546071775</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.07858152335279578</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.0</v>
+      <c r="N35">
+        <v>6.2136275460717748E-3</v>
+      </c>
+      <c r="O35">
+        <v>7.8581523352795779E-2</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
       </c>
       <c r="U35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2675,11 +3030,11 @@
       <c r="C36" t="s">
         <v>92</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.9999939379243453</v>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.99999393792434532</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
@@ -2705,32 +3060,932 @@
       <c r="M36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>1221369.0747511536</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>1770367.8996712505</v>
       </c>
-      <c r="P36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>400000.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>820000.0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1362438.833333335</v>
-      </c>
-      <c r="T36" t="n">
-        <v>8.58333333333333E7</v>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>400000</v>
+      </c>
+      <c r="R36">
+        <v>820000</v>
+      </c>
+      <c r="S36">
+        <v>1362438.8333333349</v>
+      </c>
+      <c r="T36">
+        <v>85833333.333333299</v>
       </c>
       <c r="U36" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7DE808-ABB0-43C8-9F45-891D68591FD7}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.3903794859359846</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.2394737894974655</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>98</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.9893610572259941</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8981577199495393</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2">
+        <v>159334</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.4105237633365704E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>919943.23960184853</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6115976.4889756301</v>
+      </c>
+      <c r="F4" s="2">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>500000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>893875</v>
+      </c>
+      <c r="J4" s="2">
+        <v>280000000</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2">
+        <v>64453</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.6092810378273521</v>
+      </c>
+      <c r="D5" s="2">
+        <v>499840.83012128511</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4163131.0453279675</v>
+      </c>
+      <c r="F5" s="2">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>350000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>600000000</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100507</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.3907189621726479</v>
+      </c>
+      <c r="D6" s="2">
+        <v>437911.8002730672</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1447543.2422452129</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>380000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.2923678467507274</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.7747992417844067</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.279570805043647</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.772475690453464</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2090895.1013497566</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2512487.7839491651</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>800000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1400000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>85833333.333333299</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2307864.6303567886</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2628933.1994031789</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>900000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1581242</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2785322.0000000023</v>
+      </c>
+      <c r="J10" s="2">
+        <v>88833333.333333299</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>870639.25768328388</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1244349.7351955166</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>543568.47916666651</v>
+      </c>
+      <c r="I11" s="2">
+        <v>987367.41666666674</v>
+      </c>
+      <c r="J11" s="2">
+        <v>88833333.333333299</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120395.54216057483</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7202.5578067896458</v>
+      </c>
+      <c r="F12" s="2">
+        <v>99544.843244333097</v>
+      </c>
+      <c r="G12" s="2">
+        <v>120089.278969409</v>
+      </c>
+      <c r="H12" s="2">
+        <v>121603.863297269</v>
+      </c>
+      <c r="I12" s="2">
+        <v>123699.05617976301</v>
+      </c>
+      <c r="J12" s="2">
+        <v>131125.56583564001</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>271522.31455790927</v>
+      </c>
+      <c r="E13" s="2">
+        <v>33656.892158358722</v>
+      </c>
+      <c r="F13" s="2">
+        <v>167222.47763033799</v>
+      </c>
+      <c r="G13" s="2">
+        <v>275594.02944834903</v>
+      </c>
+      <c r="H13" s="2">
+        <v>279944.529963471</v>
+      </c>
+      <c r="I13" s="2">
+        <v>285649.51016360102</v>
+      </c>
+      <c r="J13" s="2">
+        <v>303816.69022644899</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.82760063045586807</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.8863882938795244</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.18874878758486907</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.95408035616130005</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>66.615259907281143</v>
+      </c>
+      <c r="E16" s="2">
+        <v>88.616723085521514</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.27709503745322</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12.3676400626376</v>
+      </c>
+      <c r="H16" s="2">
+        <v>26.8159275033941</v>
+      </c>
+      <c r="I16" s="2">
+        <v>87.081886790984896</v>
+      </c>
+      <c r="J16" s="2">
+        <v>918.60888144107696</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>66.602192570379188</v>
+      </c>
+      <c r="E17" s="2">
+        <v>91.842736083648205</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.2278165060792401</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12.4313301205017</v>
+      </c>
+      <c r="H17" s="2">
+        <v>26.6366612879679</v>
+      </c>
+      <c r="I17" s="2">
+        <v>87.280507099717624</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1740.31085352332</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.7404037342386034</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.1797312778577129</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>49.612202958292919</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16.390099614285813</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2">
+        <v>108</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.91913797284190102</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.1208489472381455</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.99999393792434532</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6.1064506938087648</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.7188786092921475</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2">
+        <v>99</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.71020853540252182</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.45366685938214396</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.5302255092143549</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.4199572401418852</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.2136275460717748E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.8581523352795779E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.99999393792434532</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1221369.0747511536</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1770367.8996712505</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>820000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1362438.8333333349</v>
+      </c>
+      <c r="J25" s="2">
+        <v>85833333.333333299</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>